--- a/data/trans_camb/P42C_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P42C_R-Edad-trans_camb.xlsx
@@ -572,7 +572,7 @@
         <v>-6.011203653356298</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>8.128078612104966</v>
+        <v>8.128078612104972</v>
       </c>
     </row>
     <row r="5">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-14.37190532994933</v>
+        <v>-13.49800912963824</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.022127990240445</v>
+        <v>-4.291875167225411</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.444921450188861</v>
+        <v>1.829137556290114</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>22.74644480868412</v>
+        <v>23.591128876611</v>
       </c>
     </row>
     <row r="7">
@@ -614,7 +614,7 @@
         <v>-0.2230422535478682</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.301587681137022</v>
+        <v>0.3015876811370222</v>
       </c>
     </row>
     <row r="8">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4609520958797246</v>
+        <v>-0.4419763150611564</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1705404949759891</v>
+        <v>-0.1677969225084668</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.06953350778678302</v>
+        <v>0.08820883283900088</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.002068387548883</v>
+        <v>0.94967217621545</v>
       </c>
     </row>
     <row r="10">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-14.59327933276022</v>
+        <v>-13.89524929809627</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.93355557605145</v>
+        <v>-8.278070858791297</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-2.920590464210706</v>
+        <v>-2.98084722332151</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.246261463098596</v>
+        <v>7.060015289672052</v>
       </c>
     </row>
     <row r="13">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.438870757571443</v>
+        <v>-0.4291181723310936</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2485199811519877</v>
+        <v>-0.25342068189564</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.1072535930765334</v>
+        <v>-0.1134343273736446</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2579387828047685</v>
+        <v>0.2668259332777148</v>
       </c>
     </row>
     <row r="16">
@@ -748,7 +748,7 @@
         <v>-8.011118846895487</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-3.211882011076478</v>
+        <v>-3.211882011076472</v>
       </c>
     </row>
     <row r="17">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-13.06097157973835</v>
+        <v>-12.74948430363635</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-8.862856800199085</v>
+        <v>-8.464700280142026</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-2.950162858871955</v>
+        <v>-2.71196323007572</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.131354129002059</v>
+        <v>2.118255870267845</v>
       </c>
     </row>
     <row r="19">
@@ -790,7 +790,7 @@
         <v>-0.2815628412231015</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.1128864322194545</v>
+        <v>-0.1128864322194544</v>
       </c>
     </row>
     <row r="20">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4257802780376615</v>
+        <v>-0.4156329268222297</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2823882819849178</v>
+        <v>-0.2704935750135239</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.116539695297037</v>
+        <v>-0.1009802469801233</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.08654349642515219</v>
+        <v>0.08130555821772273</v>
       </c>
     </row>
     <row r="22">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-17.27545421994718</v>
+        <v>-17.77500455839654</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8287385242159834</v>
+        <v>0.5910814205501205</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-7.003756993162657</v>
+        <v>-7.178823291398809</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.42947368787057</v>
+        <v>11.71297587103458</v>
       </c>
     </row>
     <row r="25">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5814770061664163</v>
+        <v>-0.6067004680743961</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.02814638101272154</v>
+        <v>0.01807260917243934</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.2979184393669834</v>
+        <v>-0.3097814529146742</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.471767037257366</v>
+        <v>0.4964303136963762</v>
       </c>
     </row>
     <row r="28">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-9.298048178743304</v>
+        <v>-9.638908081570776</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.4783548845772759</v>
+        <v>-0.546751612116568</v>
       </c>
     </row>
     <row r="30">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.177381447951502</v>
+        <v>1.697212417375722</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>9.597276112016877</v>
+        <v>9.572180637788827</v>
       </c>
     </row>
     <row r="31">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.474097642121991</v>
+        <v>-0.4825530676891756</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.02307747330630537</v>
+        <v>-0.03720116304961566</v>
       </c>
     </row>
     <row r="33">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.09613605353436418</v>
+        <v>0.1343119229355956</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.7320585954272217</v>
+        <v>0.6971279617994863</v>
       </c>
     </row>
     <row r="34">
@@ -1023,10 +1023,10 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-11.54379873312899</v>
+        <v>-12.10238988970193</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.756654835454268</v>
+        <v>-4.437030227064915</v>
       </c>
     </row>
     <row r="36">
@@ -1037,10 +1037,10 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-0.2277155677655714</v>
+        <v>-0.07385605010398075</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>7.137945336452131</v>
+        <v>7.047978424915416</v>
       </c>
     </row>
     <row r="37">
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.6308538326472403</v>
+        <v>-0.6431623603314877</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2038909181745508</v>
+        <v>-0.2308897688458108</v>
       </c>
     </row>
     <row r="39">
@@ -1079,10 +1079,10 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>-0.01459238237217909</v>
+        <v>0.01689961381691676</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.6065030257735973</v>
+        <v>0.6163865913267155</v>
       </c>
     </row>
     <row r="40">
@@ -1100,7 +1100,7 @@
         <v>-9.50604071693536</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>0.3743950323851566</v>
+        <v>0.3743950323851525</v>
       </c>
     </row>
     <row r="41">
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-15.10898384654663</v>
+        <v>-14.90403111876318</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-5.608556771734548</v>
+        <v>-5.543045595916299</v>
       </c>
     </row>
     <row r="42">
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-5.031490136826648</v>
+        <v>-4.481446855410073</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>5.922144621005243</v>
+        <v>5.437615441304933</v>
       </c>
     </row>
     <row r="43">
@@ -1142,7 +1142,7 @@
         <v>-0.8219458854619133</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>0.03237230573377649</v>
+        <v>0.03237230573377613</v>
       </c>
     </row>
     <row r="44">
@@ -1153,10 +1153,10 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.9920310554086343</v>
+        <v>-0.9533671036203314</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3565215517468134</v>
+        <v>-0.3601337460764875</v>
       </c>
     </row>
     <row r="45">
@@ -1167,10 +1167,10 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.4907952477482701</v>
+        <v>-0.4080655769283104</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.7856782280756818</v>
+        <v>0.6570409172914183</v>
       </c>
     </row>
     <row r="46">
@@ -1188,7 +1188,7 @@
         <v>-8.460633953738398</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>0.3722218786208847</v>
+        <v>0.3722218786208792</v>
       </c>
     </row>
     <row r="47">
@@ -1199,10 +1199,10 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-10.61823414970163</v>
+        <v>-10.79536720603247</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.846658763170548</v>
+        <v>-2.069763759739547</v>
       </c>
     </row>
     <row r="48">
@@ -1213,10 +1213,10 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-6.231247164710927</v>
+        <v>-6.399391663767126</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>2.656709098766043</v>
+        <v>2.543356158869978</v>
       </c>
     </row>
     <row r="49">
@@ -1230,7 +1230,7 @@
         <v>-0.3535656621119032</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>0.01555496617472488</v>
+        <v>0.01555496617472465</v>
       </c>
     </row>
     <row r="50">
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.4200800155315095</v>
+        <v>-0.4302125639174999</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.07387861227390494</v>
+        <v>-0.0824915021176444</v>
       </c>
     </row>
     <row r="51">
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.2651224113053677</v>
+        <v>-0.2767382586526111</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.1178790256051162</v>
+        <v>0.1124523821698222</v>
       </c>
     </row>
     <row r="52">
